--- a/put-call-parity.xlsx
+++ b/put-call-parity.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shaun/Code/PACKAGES/45-options-arbitrage-parity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C5E45CA-D79E-9048-BE36-7BAC0ED32167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A64D565-E8C7-6348-ABDC-A29498DEBB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C617257B-658F-3249-993C-E34E6E4A4F87}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C617257B-658F-3249-993C-E34E6E4A4F87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="WIZARDS" sheetId="4" r:id="rId1"/>
+    <sheet name="CALCULATION" sheetId="3" r:id="rId2"/>
+    <sheet name="Tests" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
   <si>
     <t>Call</t>
   </si>
@@ -135,21 +136,6 @@
     <t>Net profit</t>
   </si>
   <si>
-    <t>https://www.delta.exchange/app/options_chain/trade/BTC/C-BTC-22000-090323</t>
-  </si>
-  <si>
-    <t>https://www.deribit.com/options/BTC/BTC-9MAR23/BTC-9MAR23-22000-C</t>
-  </si>
-  <si>
-    <t>https://api.delta.exchange/v2/tickers?contract_types=call_options</t>
-  </si>
-  <si>
-    <t>https://test.deribit.com/api/v2/public/get_instruments?currency=BTC&amp;kind=option</t>
-  </si>
-  <si>
-    <t>https://test.deribit.com/api/v2/public/get_order_book_by_instrument_id?instrument_id=152183</t>
-  </si>
-  <si>
     <t>Commission call</t>
   </si>
   <si>
@@ -171,12 +157,6 @@
     <t>You also have exchange. Risk with BTC price movement against USD on deribit</t>
   </si>
   <si>
-    <t>https://www.deribit.com/api/v2/public/get_book_summary_by_currency?currency=BTC&amp;kind=option</t>
-  </si>
-  <si>
-    <t>https://www.deribit.com/api/v2/public/get_book_summary_by_currency?currency=ETH&amp;kind=option</t>
-  </si>
-  <si>
     <t>CallBidExch1</t>
   </si>
   <si>
@@ -274,6 +254,63 @@
   </si>
   <si>
     <t>RightExch2HighLeftExch1Perc</t>
+  </si>
+  <si>
+    <t>Delta Exchange</t>
+  </si>
+  <si>
+    <t>Deribit Exchange</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Futures Price</t>
+  </si>
+  <si>
+    <t>Strike Price</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Arbitrage</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Must be a postitive number</t>
+  </si>
+  <si>
+    <t>Put-Call-Parity Example</t>
+  </si>
+  <si>
+    <t>Options Arbitrage</t>
+  </si>
+  <si>
+    <t>Scenario 1 - Price moves up</t>
+  </si>
+  <si>
+    <t>- Call Contract Expires At</t>
+  </si>
+  <si>
+    <t>- Put Contract Expires At</t>
+  </si>
+  <si>
+    <t>- Long on Futures Price</t>
+  </si>
+  <si>
+    <t>COSTS</t>
+  </si>
+  <si>
+    <t>TOTAL COSTS</t>
+  </si>
+  <si>
+    <t>EXPECTED PROFIT</t>
+  </si>
+  <si>
+    <t>Percentage Arbitrage</t>
+  </si>
+  <si>
+    <t>Scenario 2 - Price moves down</t>
   </si>
 </sst>
 </file>
@@ -284,9 +321,9 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,8 +346,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,13 +380,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -351,7 +417,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,8 +479,56 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -423,7 +537,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -732,11 +877,374 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3FF525-E3E8-D447-A153-248AD9AAC8BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC00D7C-1AD2-634C-9555-D34901E6A45C}">
+  <dimension ref="B1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="28">
+        <v>143</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="28">
+        <v>171</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="28">
+        <v>21450</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="28">
+        <v>21500</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="30">
+        <f>SUM(C8,C6)</f>
+        <v>21643</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="30">
+        <f>SUM(E7,E6)</f>
+        <v>21621</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="29">
+        <f>IFERROR(C9-E9,0)</f>
+        <v>22</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28">
+        <v>500</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="33">
+        <f>-((E7+E12)-WIZARDS!$C$8-WIZARDS!C6)</f>
+        <v>-307</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="33">
+        <f>-$E$6</f>
+        <v>-171</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="33">
+        <f>$E$12</f>
+        <v>500</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30">
+        <f>SUM(E14:E16)</f>
+        <v>22</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30">
+        <f>-E12</f>
+        <v>-500</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="33">
+        <f>C6</f>
+        <v>143</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="33">
+        <f>(C8-(E7+E19)-E6)</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33">
+        <f>-E12</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30">
+        <f>SUM(E21:E23)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30">
+        <f>-E19</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="33">
+        <f>C6*0.05%*2</f>
+        <v>0.14300000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="33">
+        <f>E6*0.05%*2</f>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="33">
+        <f>$E$7*0.05%*2</f>
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30">
+        <f>SUM(E28:E30)</f>
+        <v>21.763999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30">
+        <f>E24-E31</f>
+        <v>0.23600000000000065</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="36">
+        <f>E33/E7</f>
+        <v>1.1002331002331032E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874233C3-D4F7-7E49-A308-98C0118FABF6}">
   <dimension ref="A2:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,9 +1284,7 @@
       <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
@@ -808,9 +1314,7 @@
       <c r="L3" s="1">
         <v>22000</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="O3" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
@@ -835,14 +1339,10 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O7" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O8" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -872,9 +1372,7 @@
       <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
@@ -905,9 +1403,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="O11" s="9" t="s">
-        <v>35</v>
-      </c>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
@@ -916,9 +1412,6 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1118,7 +1611,7 @@
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G33" s="10">
         <f>G28*0.05%*2</f>
@@ -1127,7 +1620,7 @@
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E34" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G34" s="10">
         <f>-C29*0.05%*2</f>
@@ -1136,7 +1629,7 @@
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G35" s="10">
         <f>F24*0.05%*2</f>
@@ -1146,7 +1639,7 @@
     <row r="36" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E36" s="7"/>
       <c r="F36" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G36" s="11">
         <f>SUM(G33:G35)</f>
@@ -1155,7 +1648,7 @@
     </row>
     <row r="38" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E38" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="11">
@@ -1165,34 +1658,26 @@
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E40" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G40" s="12"/>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{9F459934-7378-A54B-842B-6DF969A8455B}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{A68FF8EE-825E-4B4F-BCED-E484535F4695}"/>
-    <hyperlink ref="O7" r:id="rId3" xr:uid="{56B7F139-3230-BB45-8012-D7BE5458147D}"/>
-    <hyperlink ref="O11" r:id="rId4" xr:uid="{38792E51-5618-2C44-B214-5758E04CFD06}"/>
-    <hyperlink ref="O9" r:id="rId5" xr:uid="{CC051F28-3E77-784D-A2D6-6AE2BE247527}"/>
-    <hyperlink ref="O8" r:id="rId6" xr:uid="{D8DCE653-6A3A-4D46-909D-E31BE40241CA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7D6630-B7B7-0246-BF76-F309B7B80B59}">
   <dimension ref="A1:AR25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+      <selection activeCell="Z8" sqref="A5:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1212,13 +1697,13 @@
     <col min="17" max="17" width="12.6640625" style="19" customWidth="1"/>
     <col min="18" max="18" width="10.83203125" style="1"/>
     <col min="19" max="19" width="1.5" style="14" customWidth="1"/>
-    <col min="20" max="23" width="15" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1.5" style="14" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="28" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="1.5" style="14" hidden="1" customWidth="1"/>
-    <col min="30" max="33" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="1.5" style="14" hidden="1" customWidth="1"/>
+    <col min="20" max="23" width="15" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5" style="14" customWidth="1"/>
+    <col min="25" max="26" width="12.6640625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="10.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="1.5" style="14" customWidth="1"/>
+    <col min="30" max="33" width="10.83203125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="1.5" style="14" customWidth="1"/>
     <col min="35" max="38" width="10.83203125" style="1"/>
     <col min="39" max="39" width="1.5" style="14" customWidth="1"/>
     <col min="40" max="43" width="10.83203125" style="1"/>
@@ -1228,32 +1713,32 @@
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="Y1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AL1" s="3"/>
       <c r="AM1" s="13"/>
       <c r="AN1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AO1" s="3"/>
       <c r="AP1" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AQ1" s="3"/>
     </row>
@@ -1264,108 +1749,108 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1510,25 +1995,16 @@
       <c r="I6" s="20"/>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="21">
-        <f>140.78+24000</f>
-        <v>24140.78</v>
-      </c>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="21">
-        <f>2539+21647</f>
-        <v>24186</v>
-      </c>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="21">
-        <f>H23-H22</f>
-        <v>45.220000000001164</v>
-      </c>
+      <c r="H25" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
